--- a/딥러닝 스터디 시간표.xlsx
+++ b/딥러닝 스터디 시간표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oht\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33171BFD-9DBC-41BF-BD98-474BA53494BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11940" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="14" r:id="rId1"/>
@@ -56,7 +55,7 @@
     <definedName name="요일및주">{0,1,2,3,4,5,6} + {0;1;2;3;4;5}*7</definedName>
     <definedName name="주시작">'1월'!$K$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -172,29 +171,29 @@
   </si>
   <si>
     <t>5, 6 장
-3. 안준헌, 이나영, 전유정, 김현종</t>
+3. 안준헌, 김나영, 김현종</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1, 2 장
-3. 안준헌, 이나영, 전유정, 김현종</t>
+3. 안준헌, 김나영, 김현종</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3, 4 장
-3. 안준헌, 이나영, 전유정, 김현종</t>
+3. 안준헌, 김나영, 김현종</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7, 8, 9장
-3.안준헌, 이나영, 전유정, 김현종</t>
+3.안준헌, 김나영, 김현종</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -711,16 +710,16 @@
     <cellStyle name="강조색2" xfId="18" builtinId="33"/>
     <cellStyle name="강조색5" xfId="4" builtinId="45" customBuiltin="1"/>
     <cellStyle name="백분율" xfId="10" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="설정 항목" xfId="14" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="설정 항목" xfId="14"/>
     <cellStyle name="쉼표" xfId="6" builtinId="3" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="7" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="요일" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="요일" xfId="12"/>
     <cellStyle name="제목" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="제목 2" xfId="15" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="16" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="줄무늬" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="줄무늬" xfId="13"/>
     <cellStyle name="통화" xfId="8" builtinId="4" customBuiltin="1"/>
     <cellStyle name="통화 [0]" xfId="9" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1153,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1161,7 +1160,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1488,22 +1487,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="559" yWindow="757" count="14">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="목록에서 날짜를 선택합니다. 취소를 선택한 다음 Alt+아래쪽 화살표를 눌러 드롭다운 목록에서 일을 선택합니다." prompt="이 셀에서 주 시작 요일을 선택합니다. Alt+아래쪽 화살표를 눌러 드롭다운 목록을 연 다음 Enter 키를 눌러 주 시작 요일을 선택합니다." sqref="K3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="목록에서 날짜를 선택합니다. 취소를 선택한 다음 Alt+아래쪽 화살표를 눌러 드롭다운 목록에서 일을 선택합니다." prompt="이 셀에서 주 시작 요일을 선택합니다. Alt+아래쪽 화살표를 눌러 드롭다운 목록을 연 다음 Enter 키를 눌러 주 시작 요일을 선택합니다." sqref="K3">
       <formula1>"일요일,월요일"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에서 사용자 지정 1개월 달력을 만듭니다. 이 1월 워크시트를 사용하여 모든 달에 대한 연도와 주 시작 요일을 사용자 지정합니다. 각 달은 별도의 워크시트에 있습니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="연도를 입력하고 아래 셀에 달력 시작 요일을 선택합니다. 이 일정 설정 셀은 인쇄되지 않습니다." sqref="J1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 연도를 입력합니다." sqref="J2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 주 시작 요일을 선택합니다." sqref="J3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 연도를 입력합니다." sqref="K2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 K2 셀에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4 E4 F6 B10 C12" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에서 사용자 지정 1개월 달력을 만듭니다. 이 1월 워크시트를 사용하여 모든 달에 대한 연도와 주 시작 요일을 사용자 지정합니다. 각 달은 별도의 워크시트에 있습니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="연도를 입력하고 아래 셀에 달력 시작 요일을 선택합니다. 이 일정 설정 셀은 인쇄되지 않습니다." sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 연도를 입력합니다." sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 주 시작 요일을 선택합니다." sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 연도를 입력합니다." sqref="K2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 K2 셀에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4 E4 F6 B10 C12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor theme="2" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1766,15 +1765,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0900-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0900-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0900-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0900-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="10월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0900-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0900-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0900-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0900-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="10월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11">
     <tabColor theme="2" tint="-0.89999084444715716"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2029,15 +2028,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0A00-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0A00-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0A00-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0A00-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="11월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0A00-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0A00-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0A00-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0A00-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="11월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,7 +2048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2292,15 +2291,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0B00-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0B00-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0B00-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0B00-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="12월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0B00-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0B00-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0B00-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0B00-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="12월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,7 +2311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2564,15 +2563,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="2월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="2월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2584,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2828,15 +2827,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="3월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0200-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="3월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2848,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3092,15 +3091,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="4월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="4월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3112,7 +3111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3356,15 +3355,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="5월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0400-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0400-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="5월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3620,15 +3619,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0500-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3640,7 +3639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor theme="2"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3884,15 +3883,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="7월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0600-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0600-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="7월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3904,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4148,15 +4147,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0700-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0700-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="8월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0700-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="8월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4168,7 +4167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4412,15 +4411,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3" xr:uid="{00000000-0002-0000-0800-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2" xr:uid="{00000000-0002-0000-0800-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1" xr:uid="{00000000-0002-0000-0800-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="9월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0800-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14" xr:uid="{00000000-0002-0000-0800-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14" xr:uid="{00000000-0002-0000-0800-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4" xr:uid="{00000000-0002-0000-0800-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C2:H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 5, 7, 9, 11, 13행에는 해당 주의 날짜가 표시됩니다. 이 셀에 숫자 1이 없는 경우에는 이전 달의 날짜가 표시됩니다. E13 셀에 메모를 입력합니다." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행에는 달력의 요일 이름이 표시됩니다. 이 셀에는 주의 시작 요일이 표시됩니다. 시작 요일을 변경하려면 1월 워크시트 K3 셀에 새 요일을 입력하세요." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 자동으로 업데이트됩니다. 연도를 변경하려면 K2 셀에서 다른 연도를 선택합니다." sqref="C1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="9월 한 달 일정" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 메모를 입력합니다." sqref="D13:D14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 메모를 입력합니다." sqref="E13:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 행과 6, 8, 10, 12, 14 행은 위의 셀에 있는 날짜와 관련된 일별 메모를 입력하는 셀입니다." sqref="B4"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
